--- a/Тест курсач/bin/Debug/Квитанция.xlsx
+++ b/Тест курсач/bin/Debug/Квитанция.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89C02E4-A2E2-43F9-A259-D7E31E3F68A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AD5070-AC31-42A5-A27B-DE3B5A1EECCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -954,7 +954,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -1061,6 +1061,39 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1070,44 +1103,8 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -1168,75 +1165,6 @@
   <dxfs count="14">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1269,11 +1197,49 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1305,6 +1271,9 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1332,6 +1301,34 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1438,10 +1435,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Данные" displayName="Данные" ref="B23:E30" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
   <autoFilter ref="B23:E29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="НАЗВАНИЕ" dataDxfId="3" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="КОЛИЧЕСТВО" dataDxfId="2" totalsRowDxfId="6" dataCellStyle="Финансовый"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="СТОИМОСТЬ" totalsRowLabel="ИТОГО К ОПЛАТЕ" dataDxfId="0" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ИТОГО" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="НАЗВАНИЕ" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="КОЛИЧЕСТВО" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Финансовый"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="СТОИМОСТЬ" totalsRowLabel="ИТОГО К ОПЛАТЕ" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ИТОГО" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1687,8 +1684,8 @@
   </sheetPr>
   <dimension ref="B1:F36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1"/>
@@ -1802,12 +1799,12 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="2:5" ht="30" customHeight="1">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="2:5" ht="30" customHeight="1">
       <c r="B13" s="28" t="s">
@@ -1816,55 +1813,55 @@
       <c r="C13" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="2:5" ht="30" customHeight="1">
       <c r="B14" s="23"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="52"/>
     </row>
     <row r="15" spans="2:5" ht="30" customHeight="1">
       <c r="B15" s="23"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="52"/>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1">
       <c r="B16" s="23"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="52"/>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1">
       <c r="B17" s="23"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="52"/>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1">
       <c r="B18" s="23"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="52"/>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1">
       <c r="B19" s="23"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="52"/>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1">
       <c r="B20" s="25"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="52">
+      <c r="D20" s="46">
         <f>SUBTOTAL(109,Данные[ИТОГО])</f>
         <v>0</v>
       </c>
-      <c r="E20" s="53"/>
+      <c r="E20" s="47"/>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1">
       <c r="B21" s="20"/>
@@ -1873,12 +1870,12 @@
       <c r="E21" s="22"/>
     </row>
     <row r="22" spans="2:6" ht="30" customHeight="1">
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="2:6" ht="30" customHeight="1">
@@ -1897,8 +1894,8 @@
     </row>
     <row r="24" spans="2:6" ht="30" customHeight="1">
       <c r="B24" s="14"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="15">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
@@ -1907,8 +1904,8 @@
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1">
       <c r="B25" s="14"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="15">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
@@ -1916,8 +1913,8 @@
     </row>
     <row r="26" spans="2:6" ht="30" customHeight="1">
       <c r="B26" s="14"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="15">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
@@ -1925,8 +1922,8 @@
     </row>
     <row r="27" spans="2:6" ht="30" customHeight="1">
       <c r="B27" s="14"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="15">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
@@ -1934,8 +1931,8 @@
     </row>
     <row r="28" spans="2:6" ht="30" customHeight="1">
       <c r="B28" s="14"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="15">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
@@ -1943,8 +1940,8 @@
     </row>
     <row r="29" spans="2:6" ht="30" customHeight="1">
       <c r="B29" s="14"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="15">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
@@ -1962,50 +1959,44 @@
       </c>
     </row>
     <row r="31" spans="2:6" ht="30" customHeight="1">
-      <c r="B31" s="47" t="str">
+      <c r="B31" s="48" t="str">
         <f>"Все чеки должны быть выписаны на компанию "&amp;Название_Компании&amp;"."</f>
         <v>Все чеки должны быть выписаны на компанию Мастерская "СделаНо".</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
     </row>
     <row r="32" spans="2:6" ht="30" customHeight="1">
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="35" spans="3:6" ht="30" customHeight="1">
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
     </row>
     <row r="36" spans="3:6" ht="30" customHeight="1">
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="8">
+    <mergeCell ref="B12:E12"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="C35:F35"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="19">
